--- a/data/hotels_by_city/Houston/Houston_shard_284.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_284.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="593">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d486939-Reviews-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hampton-Inn-Suites-Houston-Westchase.h1103355.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531271017934&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=090337f4-db54-4603-8523-a38ab3eb737f&amp;mctc=9&amp;exp_dp=98.1&amp;exp_ts=1531271018794&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1655 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r600013565-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>486939</t>
+  </si>
+  <si>
+    <t>600013565</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>If You're Looking for a Nice Place to Stay - Look No Further</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If You're Looking for a Nice Place to Stay - Look No Further. This was a very nice hotel. We enjoyed the spacious room. It had everything we needed to enjoy our stay. The staff was very helpful. It was nice to start the day with a wonderful breakfast. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r591248718-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591248718</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Dead cockroach outside my room for my whole stay!</t>
+  </si>
+  <si>
+    <t>Since We first got there, there was a cockroach outside our room (Alive) so we killed it in a panic and kicked it away from our door 3 days later when I needed to checkout it was still there chilling.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r588162542-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588162542</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Make sure you get a working shower!</t>
+  </si>
+  <si>
+    <t>My daughter and I arrived for a weekend wedding event for a friend.  We chose this property because it was close to the venue, and we thought we would be safe with the Hampton name.  We chose an upgraded double queen room when we reserved on the Hilton website.  After major traffic delays between San Antonio and the hotel, we arrived with minutes to spare before we had to leave for the rehearsal dinner. We noticed that the outlets weren't working at the sink/vanity, but we were able to use the plug on the desk around the corner for hair appliances. The hair dryer wasn't working, but we brought our own. I reported the outlet problem as we raced out the door for the rehearsal, and they offered to let us change our room to one on the third floor. We did not have time to move, and did not return to the hotel until midnight. 
+The following morning at 5:00 am, my daughter discovered that the shower handle would not stop between "off" and "scalding hot."  We had to take turns standing outside the shower holding the handle for each other. We left the hotel at a rush at 6:15 am to go to the wedding venue.  I reported the shower problem.  We were headed to the wedding and would not return until midnight, so again - no time to change rooms. The staff was courteous, but no compensation...My daughter and I arrived for a weekend wedding event for a friend.  We chose this property because it was close to the venue, and we thought we would be safe with the Hampton name.  We chose an upgraded double queen room when we reserved on the Hilton website.  After major traffic delays between San Antonio and the hotel, we arrived with minutes to spare before we had to leave for the rehearsal dinner. We noticed that the outlets weren't working at the sink/vanity, but we were able to use the plug on the desk around the corner for hair appliances. The hair dryer wasn't working, but we brought our own. I reported the outlet problem as we raced out the door for the rehearsal, and they offered to let us change our room to one on the third floor. We did not have time to move, and did not return to the hotel until midnight. The following morning at 5:00 am, my daughter discovered that the shower handle would not stop between "off" and "scalding hot."  We had to take turns standing outside the shower holding the handle for each other. We left the hotel at a rush at 6:15 am to go to the wedding venue.  I reported the shower problem.  We were headed to the wedding and would not return until midnight, so again - no time to change rooms. The staff was courteous, but no compensation was offered. I guess they didn't have to do anything since they offered to give us another room. The room looked nice, the bed was fine, but the air conditioner struggled to keep the room cool.  It never did get really comfortable.  Housekeeping should have reported the problems - particularly the shower handle, and the room should never have been rented to us in the first place. If you stay here, make sure you ask for a room that has been repaired and or renovated. Make sure everything is working before you unpack your bags. The breakfast was okay.  The staff was having to scramble to feed a large group of baseball players and their families on Saturday morning, and were very nice to check on us to make sure we got what we needed before they closed up the breakfast area.This trip is going to make it harder to choose in the future, as it decreased my confidence in the Hampton brand. $120/night was WAY too much for what we got.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon R, Manager at Hampton Inn &amp; Suites Houston-Westchase, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>My daughter and I arrived for a weekend wedding event for a friend.  We chose this property because it was close to the venue, and we thought we would be safe with the Hampton name.  We chose an upgraded double queen room when we reserved on the Hilton website.  After major traffic delays between San Antonio and the hotel, we arrived with minutes to spare before we had to leave for the rehearsal dinner. We noticed that the outlets weren't working at the sink/vanity, but we were able to use the plug on the desk around the corner for hair appliances. The hair dryer wasn't working, but we brought our own. I reported the outlet problem as we raced out the door for the rehearsal, and they offered to let us change our room to one on the third floor. We did not have time to move, and did not return to the hotel until midnight. 
+The following morning at 5:00 am, my daughter discovered that the shower handle would not stop between "off" and "scalding hot."  We had to take turns standing outside the shower holding the handle for each other. We left the hotel at a rush at 6:15 am to go to the wedding venue.  I reported the shower problem.  We were headed to the wedding and would not return until midnight, so again - no time to change rooms. The staff was courteous, but no compensation...My daughter and I arrived for a weekend wedding event for a friend.  We chose this property because it was close to the venue, and we thought we would be safe with the Hampton name.  We chose an upgraded double queen room when we reserved on the Hilton website.  After major traffic delays between San Antonio and the hotel, we arrived with minutes to spare before we had to leave for the rehearsal dinner. We noticed that the outlets weren't working at the sink/vanity, but we were able to use the plug on the desk around the corner for hair appliances. The hair dryer wasn't working, but we brought our own. I reported the outlet problem as we raced out the door for the rehearsal, and they offered to let us change our room to one on the third floor. We did not have time to move, and did not return to the hotel until midnight. The following morning at 5:00 am, my daughter discovered that the shower handle would not stop between "off" and "scalding hot."  We had to take turns standing outside the shower holding the handle for each other. We left the hotel at a rush at 6:15 am to go to the wedding venue.  I reported the shower problem.  We were headed to the wedding and would not return until midnight, so again - no time to change rooms. The staff was courteous, but no compensation was offered. I guess they didn't have to do anything since they offered to give us another room. The room looked nice, the bed was fine, but the air conditioner struggled to keep the room cool.  It never did get really comfortable.  Housekeeping should have reported the problems - particularly the shower handle, and the room should never have been rented to us in the first place. If you stay here, make sure you ask for a room that has been repaired and or renovated. Make sure everything is working before you unpack your bags. The breakfast was okay.  The staff was having to scramble to feed a large group of baseball players and their families on Saturday morning, and were very nice to check on us to make sure we got what we needed before they closed up the breakfast area.This trip is going to make it harder to choose in the future, as it decreased my confidence in the Hampton brand. $120/night was WAY too much for what we got.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r569178564-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569178564</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Westchase-Never Again</t>
+  </si>
+  <si>
+    <t>The hotel is hard to get to, the check in was not knowledgeable, the internet service says it is not secure, the front desk would not answer the phone to set up a wake up call, the security guard at the front portal is creepy, and feels unsafe.  When I told the front desk of my dissatisfaction, they did not offer 100% satisfaction, they just stared at me.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r566753429-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566753429</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>If you like mold,  this is the hotel for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run.   Run fast.   This place has a mold problem that is serious and disgusting.   Feel like a terrible parent having my 9 year old with asthma struggling to breathe for 2 nights.   Awful.   The front desk guy made up a story about a guest breaking the ice machine on the 3rd floor.   Lie.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r545685521-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545685521</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Hampton Inn and Suites Westchase is a great place to stay. Hot breakfast that is good and they have a free internet services. The staff is friendly and always willing to help. They have security also as well which is a plus.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r537251117-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537251117</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Terrible hotel</t>
+  </si>
+  <si>
+    <t>The hotel was unclean. The staff were inattentive, argumentative and unwilling to provide for the guests. The hotel smelled of marijuana. The food was awful. I stay at Hilton branded hotels all over the world and this location was the worst I have ever visited.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r529140515-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529140515</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>This is an outstanding very well kept clean and breakfast was delicious</t>
+  </si>
+  <si>
+    <t>I will be coming back to stay on another adventure here it was my pleasure and staff was so wonderful and accommodating and Every Witch Way even the manager. I would recommend this hotel to any of my friends</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r528235750-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528235750</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything about this place is great. Staff are all kind and the district manager Brandon goes out his way to help his guests. Rooms are all clean, whole hotel is clean. Breakfast is okay but they do water down the syrup to cut cost. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r519697818-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519697818</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is friendly.  All the rooms are expected (clean and confident that we can relax and rest). The only complaint is the breakfast isn't well attended. The fresh cut fruits weren't replenished and the waffle mix was out. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r515065525-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515065525</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Hampton Inn Westchase</t>
+  </si>
+  <si>
+    <t>This was an excellent Hamton Inn, which makes for a very good overall experience.  The room was spacious and clean.  Breakfast was very good and plentiful.  The pool and hot tub were very popular. The hallway areas were rather stuffy, but the rooms were cool and comfortable.  Sunday mornings get a bit loud when the International Church service gets going. Eat breakfast early to miss this.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r511204513-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511204513</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>The Hampton Inn Westchase is a clean and affordable choice.  It has a really friendly staff.  The location allows easy access to western Houston, but also downtown due to proximity to major traffic arteries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r506099447-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506099447</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>a suprise</t>
+  </si>
+  <si>
+    <t>This was a surprise, especially as I was meant to be staying 30 miles away, but the travel company booked the wrong HI sam houston highway hotel! anyway once found it was a surprisingly good hotel, quiet considering the location, a reasonable breakfast and friendly staff. Definitely a business hotel, and does that bit well</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r501450522-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501450522</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>More business than resort hotel, but clean and friendly</t>
+  </si>
+  <si>
+    <t>We reserved a block of rooms for a national family reunion.  We picked the Hampton Inn because we are used to staying at Hamptons at our reunions in various cities, and this property gave us a good rate.  The location was in an area that was more business than tourist-oriented.  The good result was that the hotel was not crowded over the weekend. The bad news is that restaurants and attractions were all a long drive away. Nothing was within walking distance, and all the roads seemed to have tolls. The airport was 25 miles away, and there was no free shuttle.  The good news is that the breakfast was excellent, as usual, with make-your-own waffles, eggs, meat, fruit, muffins, juices and more. There were microwaves and refrigerators in the rooms, so we could snack there. The pool was clean.  There was a spa, but it was the same temperature as the pool, even when we pushed the right buttons.  They had a meeting room that was not large at 986 sq feet, but we crowded inside.  They had equipment to project presentations, but no microphone.  The staff was helpful and accommodating.  There was plenty of parking, and we could park in the back where there was a door close to the elevator.  There was a massive Haliburton facility behind the Inn. There was little traffic over the weekend, but it might have been congested on week days.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We reserved a block of rooms for a national family reunion.  We picked the Hampton Inn because we are used to staying at Hamptons at our reunions in various cities, and this property gave us a good rate.  The location was in an area that was more business than tourist-oriented.  The good result was that the hotel was not crowded over the weekend. The bad news is that restaurants and attractions were all a long drive away. Nothing was within walking distance, and all the roads seemed to have tolls. The airport was 25 miles away, and there was no free shuttle.  The good news is that the breakfast was excellent, as usual, with make-your-own waffles, eggs, meat, fruit, muffins, juices and more. There were microwaves and refrigerators in the rooms, so we could snack there. The pool was clean.  There was a spa, but it was the same temperature as the pool, even when we pushed the right buttons.  They had a meeting room that was not large at 986 sq feet, but we crowded inside.  They had equipment to project presentations, but no microphone.  The staff was helpful and accommodating.  There was plenty of parking, and we could park in the back where there was a door close to the elevator.  There was a massive Haliburton facility behind the Inn. There was little traffic over the weekend, but it might have been congested on week days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r501229200-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501229200</t>
+  </si>
+  <si>
+    <t>Average Hampton</t>
+  </si>
+  <si>
+    <t>I have been to better Hampton's.  Room was OK, nothing out of the ordinary.  Halls and common area's very hot and stuffy.  No air circulating.  Rooms were COOL and comfortable temperature.  Would possibly look for another newer property in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r495237269-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495237269</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Not what I expect</t>
+  </si>
+  <si>
+    <t>The room was not Hampton quality. The shower faucet wouldn't turn all the way off. It was clean and good, but there was something off about this hotel stay. The elevator was missing threshold so we almost tripped every time we got on or off. I wasn't offered my status waters upon check in, I assumed they forgot and I asked for them when I checked out, they said they didn't do that anymore for silver status. But the next day I stayed at another Hampton inn in New Orleans and they offered me the waters at check in. I was confused. This hotel also had the wrong lids and cups out at the coffee station, the lids were for the branded Hampton inn cups and the cups were a tall thin Styrofoam and they didn't fit. I ended up spilling my drink when it fell over and the lid came all the way off. It was ok but not what I expect when I stay at Hampton Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was not Hampton quality. The shower faucet wouldn't turn all the way off. It was clean and good, but there was something off about this hotel stay. The elevator was missing threshold so we almost tripped every time we got on or off. I wasn't offered my status waters upon check in, I assumed they forgot and I asked for them when I checked out, they said they didn't do that anymore for silver status. But the next day I stayed at another Hampton inn in New Orleans and they offered me the waters at check in. I was confused. This hotel also had the wrong lids and cups out at the coffee station, the lids were for the branded Hampton inn cups and the cups were a tall thin Styrofoam and they didn't fit. I ended up spilling my drink when it fell over and the lid came all the way off. It was ok but not what I expect when I stay at Hampton Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r492827392-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492827392</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>I was part of a large church group that stayed at this hotel.  We had a combination of every age group.  Everyone was pleased with the hotel.  The management and staff were very kind and very efficient.  The rooms were very clean and spacious.  The service was great.  If I'm ever in Houston, I will stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r491853539-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491853539</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>One of the best Hampton inn I ever stayed at!! Super clean, very comfortable, the breakfast was better than most too!! The staff treats you very well super nice and helpful. The general manager is great he treats you like a old friend.....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r487581797-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487581797</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>sw engineer</t>
+  </si>
+  <si>
+    <t>it is a good place to spending your vacation time. We recommend to stay when you have a vacation plan. Especially, in Houston Texas. Because it requires to type at least 200 words, I lower estimation this hotel as a average hotel.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r484763672-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484763672</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Graduation stay</t>
+  </si>
+  <si>
+    <t>Very nice quiet hotel and it was very clean and the staff were great. Only problem was that it was located in Chinatown. Which I was unaware and it was far from the places we needed to be. I would recommend them if you need to be close by Chinatown other than that go elsewhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r478736911-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478736911</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>I don't normally write reviews, but over time the hot breakfasts at Hampton(s) have gotten lower and lower quality as the years have progressed. The cold/low maintenance items such as cereal, yogurt, etc. are most often satisfactory, but the hot items are just not great. People stay at the Hampton versus other brands because of the "Free" breakfast. They are willing to pay a little extra (sometime a lot extra) for the Hampton brand because of the convenience of a quick/free breakfast... which basically makes the breakfast "Not Free" since people are willing to pay extra in overall cost for it.  I totally understand that different people and different regions have different tastes, but whoever is in charge of the breakfast decisions at corporate Hampton has different taste than most of the people I know. Either that or they are just trying all they can to save a dime. I have travelled all over the nation and usually prefer Hampton, but my diamond status has decreased to much lower status since there are plenty of other hotels offering better, free breakfast nowadays.   The potatoes… (with the southern spicy flavor)… not a good option for breakfast. I love biscuits and gravy, but the Hampton’s “Biscuits and gravy” are pretty distasteful. It’s like Campbell’s Cream of Mushroom soup over some biscuits. Powdered eggs from anywhere are not extremely appetizing, but when a lot of the other options are distasteful too it makes...I don't normally write reviews, but over time the hot breakfasts at Hampton(s) have gotten lower and lower quality as the years have progressed. The cold/low maintenance items such as cereal, yogurt, etc. are most often satisfactory, but the hot items are just not great. People stay at the Hampton versus other brands because of the "Free" breakfast. They are willing to pay a little extra (sometime a lot extra) for the Hampton brand because of the convenience of a quick/free breakfast... which basically makes the breakfast "Not Free" since people are willing to pay extra in overall cost for it.  I totally understand that different people and different regions have different tastes, but whoever is in charge of the breakfast decisions at corporate Hampton has different taste than most of the people I know. Either that or they are just trying all they can to save a dime. I have travelled all over the nation and usually prefer Hampton, but my diamond status has decreased to much lower status since there are plenty of other hotels offering better, free breakfast nowadays.   The potatoes… (with the southern spicy flavor)… not a good option for breakfast. I love biscuits and gravy, but the Hampton’s “Biscuits and gravy” are pretty distasteful. It’s like Campbell’s Cream of Mushroom soup over some biscuits. Powdered eggs from anywhere are not extremely appetizing, but when a lot of the other options are distasteful too it makes me wonder why I stay at places like this. I often have waited (along with other guests) for the breakfast session to open (shortly after 6:00 am) and when they finally open the serving area the waffle maker accrues a long line of guests waiting to use it.   Those first comments were mainly for “Hampton Corporate” as a whole. My next comments are specific to the Hampton Westchase in Houston. I have had many issues over the years with Hampton/Hilton all over the USA, but usually I just decide it’s not worth my time to complain. I’ve definitely had better and worse experiences at Hilton properties, but I figured I finally have some time to let my opinion known and I might as well spit it out. Overall the Westchase Hampton was pretty average, I’ve had much worse experiences and issues than this before.   The staff (as a whole) was not extremely friendly... Front desk guy was not helpful at all when I arrived around midnight (due to Houston airport closures). He didn't have much to say, but even when asked questions about "what resturaunts might still be open" he still didn't have much to say. I'm guessing he must have been excited to get back to his game of tetris while talking on the phone with his buddy. So, I drove around looking for  anything open past midnight only to find most businesses closed and people asking for money at every stoplight near the hotel. Finally, I just decided to return and go to bed hungry. I made specific arrival instructions with plenty of time in advance (first floor, with a bathtub). When I arrived they said they had no rooms left on the first floor and they had to put me on the second floor. Sure, it's not the end of the world, but when you have to carry equipment up and down the stairs or wait for a slow elevator numerous time a day it becomes very annoying.   I saw the breakfast attendant lady each day and never saw her say "good morning" to a single person. Which is actually fine for me... I am more of an introvert anyway (especially in the morning), but she didn't look very happy or even try to present a smile or anything. There was a gentleman at the front desk who would occasionally walk over to the breakfast area and ask people how everything was...  he seemed genuine and polite and I didn't have any complaints in his regard.   If you want hot water in the morning, avoid this hotel. If you wake up past 7:00am you'll get a luke-warm shower (if you're lucky). Also, everyday there were tiny little flies (smaller than fruit flies) that would come out of the sink drain. I would try to run hot, soapy water into the sink overfill drain each morning, but there were always more coming from somewhere... just not a great Hilton experience.   As I said before, not my first bad experience and definitely not my last. But I’ll continue to stay at “some” of the Hilton properties… just because I do like to keep "some" Hilton points in case I need a free stay in the future. I often stay at IHG hotels and Marriot hotels so I have a choice in where I stay and which points to use. I’m sure just like thousands of other customers, I’ll just bite my tongue on most things and just wait until I forget about it.   Thanks for reading my rant. Hope it helps you improve. Have a nice day.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>I don't normally write reviews, but over time the hot breakfasts at Hampton(s) have gotten lower and lower quality as the years have progressed. The cold/low maintenance items such as cereal, yogurt, etc. are most often satisfactory, but the hot items are just not great. People stay at the Hampton versus other brands because of the "Free" breakfast. They are willing to pay a little extra (sometime a lot extra) for the Hampton brand because of the convenience of a quick/free breakfast... which basically makes the breakfast "Not Free" since people are willing to pay extra in overall cost for it.  I totally understand that different people and different regions have different tastes, but whoever is in charge of the breakfast decisions at corporate Hampton has different taste than most of the people I know. Either that or they are just trying all they can to save a dime. I have travelled all over the nation and usually prefer Hampton, but my diamond status has decreased to much lower status since there are plenty of other hotels offering better, free breakfast nowadays.   The potatoes… (with the southern spicy flavor)… not a good option for breakfast. I love biscuits and gravy, but the Hampton’s “Biscuits and gravy” are pretty distasteful. It’s like Campbell’s Cream of Mushroom soup over some biscuits. Powdered eggs from anywhere are not extremely appetizing, but when a lot of the other options are distasteful too it makes...I don't normally write reviews, but over time the hot breakfasts at Hampton(s) have gotten lower and lower quality as the years have progressed. The cold/low maintenance items such as cereal, yogurt, etc. are most often satisfactory, but the hot items are just not great. People stay at the Hampton versus other brands because of the "Free" breakfast. They are willing to pay a little extra (sometime a lot extra) for the Hampton brand because of the convenience of a quick/free breakfast... which basically makes the breakfast "Not Free" since people are willing to pay extra in overall cost for it.  I totally understand that different people and different regions have different tastes, but whoever is in charge of the breakfast decisions at corporate Hampton has different taste than most of the people I know. Either that or they are just trying all they can to save a dime. I have travelled all over the nation and usually prefer Hampton, but my diamond status has decreased to much lower status since there are plenty of other hotels offering better, free breakfast nowadays.   The potatoes… (with the southern spicy flavor)… not a good option for breakfast. I love biscuits and gravy, but the Hampton’s “Biscuits and gravy” are pretty distasteful. It’s like Campbell’s Cream of Mushroom soup over some biscuits. Powdered eggs from anywhere are not extremely appetizing, but when a lot of the other options are distasteful too it makes me wonder why I stay at places like this. I often have waited (along with other guests) for the breakfast session to open (shortly after 6:00 am) and when they finally open the serving area the waffle maker accrues a long line of guests waiting to use it.   Those first comments were mainly for “Hampton Corporate” as a whole. My next comments are specific to the Hampton Westchase in Houston. I have had many issues over the years with Hampton/Hilton all over the USA, but usually I just decide it’s not worth my time to complain. I’ve definitely had better and worse experiences at Hilton properties, but I figured I finally have some time to let my opinion known and I might as well spit it out. Overall the Westchase Hampton was pretty average, I’ve had much worse experiences and issues than this before.   The staff (as a whole) was not extremely friendly... Front desk guy was not helpful at all when I arrived around midnight (due to Houston airport closures). He didn't have much to say, but even when asked questions about "what resturaunts might still be open" he still didn't have much to say. I'm guessing he must have been excited to get back to his game of tetris while talking on the phone with his buddy. So, I drove around looking for  anything open past midnight only to find most businesses closed and people asking for money at every stoplight near the hotel. Finally, I just decided to return and go to bed hungry. I made specific arrival instructions with plenty of time in advance (first floor, with a bathtub). When I arrived they said they had no rooms left on the first floor and they had to put me on the second floor. Sure, it's not the end of the world, but when you have to carry equipment up and down the stairs or wait for a slow elevator numerous time a day it becomes very annoying.   I saw the breakfast attendant lady each day and never saw her say "good morning" to a single person. Which is actually fine for me... I am more of an introvert anyway (especially in the morning), but she didn't look very happy or even try to present a smile or anything. There was a gentleman at the front desk who would occasionally walk over to the breakfast area and ask people how everything was...  he seemed genuine and polite and I didn't have any complaints in his regard.   If you want hot water in the morning, avoid this hotel. If you wake up past 7:00am you'll get a luke-warm shower (if you're lucky). Also, everyday there were tiny little flies (smaller than fruit flies) that would come out of the sink drain. I would try to run hot, soapy water into the sink overfill drain each morning, but there were always more coming from somewhere... just not a great Hilton experience.   As I said before, not my first bad experience and definitely not my last. But I’ll continue to stay at “some” of the Hilton properties… just because I do like to keep "some" Hilton points in case I need a free stay in the future. I often stay at IHG hotels and Marriot hotels so I have a choice in where I stay and which points to use. I’m sure just like thousands of other customers, I’ll just bite my tongue on most things and just wait until I forget about it.   Thanks for reading my rant. Hope it helps you improve. Have a nice day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r473521652-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473521652</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We would definitely stay at this hotel again. Very comfortable and quiet and good for getting work done in the room.  Everything was great except the breakfast.  Egg dishes were not good and there were never any boiled eggs two morning.  Next time we'll go out for a real breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>We would definitely stay at this hotel again. Very comfortable and quiet and good for getting work done in the room.  Everything was great except the breakfast.  Egg dishes were not good and there were never any boiled eggs two morning.  Next time we'll go out for a real breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r466613821-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466613821</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Another Great Hampton Inn</t>
+  </si>
+  <si>
+    <t>The location of the hotel is in a great area. It's close to several major highways so you can get anywhere in town quickly (only if there's no traffic). The service was great and the breakfast was standard. The hotel is located right next to Chinatown so if you're looking for great food there's plenty around the corner.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>The location of the hotel is in a great area. It's close to several major highways so you can get anywhere in town quickly (only if there's no traffic). The service was great and the breakfast was standard. The hotel is located right next to Chinatown so if you're looking for great food there's plenty around the corner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r462674019-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462674019</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Solid Stay</t>
+  </si>
+  <si>
+    <t>Very nice stay and the staff was great.  Another solid stay at a Hampton Inn and Suites.  No real complaints and I would stay here again if the rate was right.  Hotel Manager even drove me pick up takeout one night.It's one of the new hotels in the area</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r455051047-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455051047</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Quiet on Weekends + Next to a Park</t>
+  </si>
+  <si>
+    <t>We stayed for a Friday and Saturday night in December. We had reserved our room a few months in advance and it was ready and waiting as requested. This hotel is in a business park so most of the office buildings were closed on the weekend and it was very quiet. It seemed like only a handful of guests were staying at the hotel. Our room was spacious, clean and comfortable. It had all the amenities we've come to expect at Hampton: wifi, cable TV, iron and ironing board, coffee maker, alarm clock, hair dryer and toiletries. It was uncharacteristically cold when we were in town but the heat worked well. There were a couple minor issues with the room: a baseboard was lose from the wall and the toilet made a loud high-pitched whine when flushed. When alerted, desk staff made a note to have them repaired. The lobby and breakfast area was attractively-decorated and modern-looking, plus it was nice they had decorations for the holidays. We enjoyed the breakfast and appreciated that they serve healthy choices like yogurt, oatmeal and fresh fruit. This hotel has an outdoor pool, fitness room, business center/computer, and self-service laundry room. The bus line goes nearby on Bellaire Blvd. and there is a Mcdonald's, Denny's, Chick-fil-A and several Asian restaurants within walking distance. We especially enjoyed the Arthur Storey Park, just a block south of the hotel. This is a storm-water maintenance project...We stayed for a Friday and Saturday night in December. We had reserved our room a few months in advance and it was ready and waiting as requested. This hotel is in a business park so most of the office buildings were closed on the weekend and it was very quiet. It seemed like only a handful of guests were staying at the hotel. Our room was spacious, clean and comfortable. It had all the amenities we've come to expect at Hampton: wifi, cable TV, iron and ironing board, coffee maker, alarm clock, hair dryer and toiletries. It was uncharacteristically cold when we were in town but the heat worked well. There were a couple minor issues with the room: a baseboard was lose from the wall and the toilet made a loud high-pitched whine when flushed. When alerted, desk staff made a note to have them repaired. The lobby and breakfast area was attractively-decorated and modern-looking, plus it was nice they had decorations for the holidays. We enjoyed the breakfast and appreciated that they serve healthy choices like yogurt, oatmeal and fresh fruit. This hotel has an outdoor pool, fitness room, business center/computer, and self-service laundry room. The bus line goes nearby on Bellaire Blvd. and there is a Mcdonald's, Denny's, Chick-fil-A and several Asian restaurants within walking distance. We especially enjoyed the Arthur Storey Park, just a block south of the hotel. This is a storm-water maintenance project with a pretty lake, picnic area and paved walking trails. We saw many types of waterfowl there. I'm sure we will stay at this property again the next time we're in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>We stayed for a Friday and Saturday night in December. We had reserved our room a few months in advance and it was ready and waiting as requested. This hotel is in a business park so most of the office buildings were closed on the weekend and it was very quiet. It seemed like only a handful of guests were staying at the hotel. Our room was spacious, clean and comfortable. It had all the amenities we've come to expect at Hampton: wifi, cable TV, iron and ironing board, coffee maker, alarm clock, hair dryer and toiletries. It was uncharacteristically cold when we were in town but the heat worked well. There were a couple minor issues with the room: a baseboard was lose from the wall and the toilet made a loud high-pitched whine when flushed. When alerted, desk staff made a note to have them repaired. The lobby and breakfast area was attractively-decorated and modern-looking, plus it was nice they had decorations for the holidays. We enjoyed the breakfast and appreciated that they serve healthy choices like yogurt, oatmeal and fresh fruit. This hotel has an outdoor pool, fitness room, business center/computer, and self-service laundry room. The bus line goes nearby on Bellaire Blvd. and there is a Mcdonald's, Denny's, Chick-fil-A and several Asian restaurants within walking distance. We especially enjoyed the Arthur Storey Park, just a block south of the hotel. This is a storm-water maintenance project...We stayed for a Friday and Saturday night in December. We had reserved our room a few months in advance and it was ready and waiting as requested. This hotel is in a business park so most of the office buildings were closed on the weekend and it was very quiet. It seemed like only a handful of guests were staying at the hotel. Our room was spacious, clean and comfortable. It had all the amenities we've come to expect at Hampton: wifi, cable TV, iron and ironing board, coffee maker, alarm clock, hair dryer and toiletries. It was uncharacteristically cold when we were in town but the heat worked well. There were a couple minor issues with the room: a baseboard was lose from the wall and the toilet made a loud high-pitched whine when flushed. When alerted, desk staff made a note to have them repaired. The lobby and breakfast area was attractively-decorated and modern-looking, plus it was nice they had decorations for the holidays. We enjoyed the breakfast and appreciated that they serve healthy choices like yogurt, oatmeal and fresh fruit. This hotel has an outdoor pool, fitness room, business center/computer, and self-service laundry room. The bus line goes nearby on Bellaire Blvd. and there is a Mcdonald's, Denny's, Chick-fil-A and several Asian restaurants within walking distance. We especially enjoyed the Arthur Storey Park, just a block south of the hotel. This is a storm-water maintenance project with a pretty lake, picnic area and paved walking trails. We saw many types of waterfowl there. I'm sure we will stay at this property again the next time we're in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r448031410-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448031410</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Excellent Service and excellent value per dollar</t>
+  </si>
+  <si>
+    <t>This Hampton Inn did a great job accommodating our room needs and making us feel very welcome (Evelyn really took care of us.) We needed two rooms and some additional bedding so Evelyn upgraded one of our rooms. This along with the free wifi, breakfast, clean rooms, great working facility always makes us look for Hampton Inn when we travel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r444098817-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444098817</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wish they were all this good. Friendly courteous staff,  large clean suite,  convenient daily breakfast,  free WiFi.. Just a perfect experience. Staff went out of there way to accommodate me with a flexible check in. Could not have asked for more.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r438716326-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438716326</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Hampton Inn-Westchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really enjoyed my stay at this hotel. I was immediately greeted as an HHonors member and was offered a snack and a drink. My guests were also offered the same. The rooms were nice and clean. The staff at this location was very friendly. They always spoke and had smiles on their faces. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r437386593-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437386593</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel - good breakfast</t>
+  </si>
+  <si>
+    <t>I have stayed at this location for two week in the last two months. The staff here is very helpful and friendly, the rooms are clean and the breakfast and coffee in the morning is really good considering what most hotels offer as a free breakfast. My only complaint would be the poor lighting in the bathroom which I think has to do with the light bulbs used not necessarily the fixtures. Other than that, it was wonderful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r433078454-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433078454</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is a great choice. Front desk was courteous, hotel very clean, rooms are clean and nice, hotel breakfast was nice. However, location was hard to find. I would highly recommend this hotel and probably will book this hotel again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r422773087-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422773087</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>1 night at West-Chase location</t>
+  </si>
+  <si>
+    <t>I did online checked in for 2 queen size beds the day before my arrival. On the day of checked in the hotel reps said the system got me down for 1 king size bed. I told him we wanted 2 queen size beds and he did confirmed us. Unfortunately, the USB ports on our night stand doesn't work. He couldn't help us because during the weekend maintenance crew doesn't work on the weekend. Other than the USB issued, this hotel is okay.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r422033364-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422033364</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Horrible Hampton Stay- Dubious Holds &amp; Ovetcharged</t>
+  </si>
+  <si>
+    <t>Dubious accounting with 8 day stay holds placed on acct AFTER paying in FULL. Mgmt, Hilton Corporation. NO response to my emails, calls and request to resolve problem. Asked for "NO PAY if not 100%" satisfied. NO Response!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Dubious accounting with 8 day stay holds placed on acct AFTER paying in FULL. Mgmt, Hilton Corporation. NO response to my emails, calls and request to resolve problem. Asked for "NO PAY if not 100%" satisfied. NO Response!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r416841323-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416841323</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Westchase area- Nice Hampton</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in Westchase area just south of Westpark tollway on west side of Beltway 8.  Clean, comfy, nice fitness center and pool. Stayed for 2 nights (moved here when unhappy with our first hotel) and will definitely be back when working in this area again.  Convenient location &amp; close to places to eat. Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r410403224-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410403224</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>family friendly</t>
+  </si>
+  <si>
+    <t>the best place to go with children and other adults. There is nothing better than having a full breakfast to get you through the day.  The comfort of home. the staff are usually local which can assist with local places to see and eat.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r407418063-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407418063</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Hampton </t>
+  </si>
+  <si>
+    <t>Up to all Hampton expectations. Wifi, breakfast, check in and out, staff all good. Up to date, good parking no complaints. Travel 2-3x per month on business.Took a breakfast bag to go, nice touch, they allowed me to check in early soI could get work done before my first meeting, very polite and nice, exercise room had plenty of equipment</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r403076272-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403076272</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Look nowhere else.</t>
+  </si>
+  <si>
+    <t>I couldn't come up with a complaint if I had to!  I travel all year.  I am pretty damn picky when it comes to where I stay and this location/staff is awesome. The staff goes above and beyond to make sure the experience is as good as possible.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r390288043-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390288043</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Hampton Inn Westchase, Houston, TX</t>
+  </si>
+  <si>
+    <t>The location is good and the staff friendly and welcoming.  The hotel is clean and up to date with all the right attributes.  I plan to stay at the Hampton Inn Westchase when I next visit Houston.  The hotel is close to restaurants and is convenient to the business offices that I visit.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r387301205-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387301205</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This is a typical Hampton.  The room was comfortable and spacious.  It was in the midst of remodeling, which I did not know at the time.  Sadly, some staff was not as friendly as I have come to expect with the Hampton brand.  Although there was one gentleman at the front desk upon check out who was quite excellent!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r386677303-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386677303</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Another good Hampton, clean and close to a lot of businesses and the Chinese Restaurant area.  Conveniently right off of I-8, easy to get around the West End of town.  As usual best to avoid the 3-8 pm rush hour in Houston. Luis the manager and his front desk staff are always very helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r378156432-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378156432</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Used condom in the hall</t>
+  </si>
+  <si>
+    <t>Been staying at Hamptons for many years.  Rough to see a used condom in the room hallway and a colleague found a bloody or soiled towel in the hall on his floor.  The staff took care of the condom but the towel was there a couple of days.  Disappointed to say the least.  Everything else was fine.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r372466700-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372466700</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Landrys trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 is a lot. You need to keep the comments to a minimum. The stay was okay. I had to go back and force because of a defective  lock. Staff was nice. Breakfast okay. I can normally stay there when other hotels are booked because of the location. That's good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r371183314-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371183314</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Great location for food!</t>
+  </si>
+  <si>
+    <t>The rooms are clean and spacious and new. The location you can't beat, there are tons of food choices.  This is far from downtown where the museums and other attractions are.  But after a long day visiting Museums, we love to eat good food and this is the best location for it.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r363505257-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363505257</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Relaxing and convenient</t>
+  </si>
+  <si>
+    <t>I really liked this hotel! The rooms were very clean and the general atmosphere was quiet and relaxing. We were there during the Final Four weekend, unknown to us, but we experienced no problems. The location is pretty central to everywhere we wanted to go. There are several great restaurants in the area and lots of places to shop or pick up snacks. Overall, our stay was excellent!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r357485896-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357485896</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Volleyball Tournament</t>
+  </si>
+  <si>
+    <t>Great location.  We enjoyed traveling the short distance to Chinatown and partaking of some great food. The hotel  breakfast was very helpful in speeding up the progress of getting out the door and to my daughter's tournament.  The beds were very comfortable and everything was clean and fresh.  The staff members were very friendly and quick with our check in.  They even helped move our room to the upper floor away from the elevator, so we could ensure less noise and quiet.  It was a very peaceful stay.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r357205638-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357205638</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>The front desk staff upgraded me and worked hard to find a suite on the top floor that would possibly have the least amount of highway noise. The suites all face the highway which makes no sense to me. The two ladies were very nice and helpful.  I was recognized as a Hiltons Honors right away. The room was big and very clean. The housekeeping staff did a nice job each day. The breakfast had hard boiled eggs each day which I love because I grab 1-2 and take them to the office to have later. I travel weekly and usually stay at Hampden Inn's and the bed was the most comfortable bed I have had in 6 years of weekly travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk staff upgraded me and worked hard to find a suite on the top floor that would possibly have the least amount of highway noise. The suites all face the highway which makes no sense to me. The two ladies were very nice and helpful.  I was recognized as a Hiltons Honors right away. The room was big and very clean. The housekeeping staff did a nice job each day. The breakfast had hard boiled eggs each day which I love because I grab 1-2 and take them to the office to have later. I travel weekly and usually stay at Hampden Inn's and the bed was the most comfortable bed I have had in 6 years of weekly travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r340997656-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340997656</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Hotel staff was very friendly and welcoming, we were attending a wedding banquet in Chinatown, this location was spot on between both old and new Chinatown.  The hotel was very clean, room was spotless.  We always enjoy the breakfast at Hampton's this one did not disappoint the breakfast area was also very clean and very well stocked with good choices.  We always stay on the highest floor away from the elevators since we like the quite.  We would stay again should be find ourselves in Houston.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r340600382-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340600382</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Hampton Inn Houston Westchase</t>
+  </si>
+  <si>
+    <t>I typically stay in this Hampton Inn every week to two and have found the management and entire staff extremely accommodating.  I highly recommend Luis and his team as well as the property and location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r338815976-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338815976</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>the overall experience was good, we fell like home, location,cleanliness ,the service and most of all the employees    always help you with a big smile, we can't thank enough  and for sure ,we'll be there in our next trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r321508611-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321508611</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Hilton Honors Member</t>
+  </si>
+  <si>
+    <t>Was not completely happy with this visit. Room keys did not work the entire weekend. Had to get Housekeeping to open my room multiple times. Breakfast was not good at all. No carts available to move items to &amp; from room upon checking out for over 2 hours.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r320287535-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320287535</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Port in a Storm</t>
+  </si>
+  <si>
+    <t>Westchase district was nearest hotel to a booked up downtown Houston.  Handicap room was spacious.  Shower had a couple of issues with a floppy shower wand and a shower bench that would not clip to the wall when raised as designed.  Checkin was flawless.  Check out was fast. Exercise room was clean with towels and water cooler with cone cups.  Two TV remotes in the exercise room.  Parking was free.  Complimentary wifi worked fine at acceptable speeds.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r316297224-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316297224</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Nice business stay at a fair price</t>
+  </si>
+  <si>
+    <t>This was not my first stay at this location. I like the location with respect to Westchase area. I like that the hotel is quite and I can access the main roads quickly. I liked the breakfast they serve omelets and all the other breakfast items. The staff was very helpful, friendly. Parking is easy and plenty of space. I will definitely return on my next trip. Thank you</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r303125077-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303125077</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Caring Staff</t>
+  </si>
+  <si>
+    <t>Our family stayed here a family member unexpectedly passed away and we had to rush to Houston to help.  The front desk staff were so helpful with adjusting our reservation as our plans unfolded and changed, and we so appreciated not having to worry about our hotel stay with all the other difficult decisions we had to make.  Accomodations were also very nice.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r295529848-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295529848</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Love this Property!</t>
+  </si>
+  <si>
+    <t>This was my first visit to Houston for Business and I got an over-sized King room that was very comfy and had a mini fridge.  For a Hampton Inn room this was a total HIT  This property delivered on all cylinders!  This stay nailed all of my expectations.  Thank you very much Team Hampton!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r287500250-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287500250</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Rooms were OK however facilities were big concern like TV , WIFI , Credit card machine etc. Every day faced issues like TV failed, then WIFI failed &amp; at the departure time the credit card did not work on the Hotel machine(though it worked on the taxi fellow machine)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r271248409-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271248409</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Poor Value</t>
+  </si>
+  <si>
+    <t>Billing rate of 399 per night, terrible, no wake up call available, bath tub drain stopper broken, bathroom sink facets not installed correctly, coffee maker should never be in a bathroom next to toilet because of sanitary reasons, workmanship of bathroom cabinet drain cutout very poor.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Luis L, Manager at Hampton Inn &amp; Suites Houston-Westchase, responded to this reviewResponded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Billing rate of 399 per night, terrible, no wake up call available, bath tub drain stopper broken, bathroom sink facets not installed correctly, coffee maker should never be in a bathroom next to toilet because of sanitary reasons, workmanship of bathroom cabinet drain cutout very poor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r262020491-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262020491</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>it did the job</t>
+  </si>
+  <si>
+    <t>the hotel was sufficient, clean, friendly.  Did not have much time to use the facilities but do not think there was a problem with anything.  Hampton Inns are extremely consistent and always stay with them.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r261188990-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261188990</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and clean</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and comfortable.  Staff is friendly and helpful.  Location was great for my purposes.  Free parking and internet a plus!  Also a nice free breakfast.  Had a minor problem which the manager of the hotel called to rectify.  Great attention to detail.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r256862416-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256862416</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>A step down from a Marriott Courtyard</t>
+  </si>
+  <si>
+    <t>I was disappointed with this hotel and I had expectations that it would be on par with a Marriott Courtyard experience.  I found the overall experience to be lacking from a Marriott Courtyard. If you are a fan of the Courtyard, then you will probably find this location to be overall less than impressive.  While the staff was friendly and the breakfast was delicious, I would only stay here again if location were of utmost importance.  Otherwise, I'll pay a little extra and travel a little further to stay at a Marriott Courtyard.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r255160861-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255160861</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>No complaints, staff was friendly and checked us in quickly so that we could get to our function.     Check out was just as easy.    Would definitely stay here again in the future.    I don't think I'll use another chain other than this one.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r250871821-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250871821</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>very good if you have business in the area</t>
+  </si>
+  <si>
+    <t>the hotel cleanliness was very impressive,  breakfast nothing special, did provide sack lunches for people on the go. I will stay here again as I often have business in the area. Convenient to Houston's highways if you are planning on doing things on the west side of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>the hotel cleanliness was very impressive,  breakfast nothing special, did provide sack lunches for people on the go. I will stay here again as I often have business in the area. Convenient to Houston's highways if you are planning on doing things on the west side of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r248210389-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248210389</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Not Up to Hilton Standards</t>
+  </si>
+  <si>
+    <t>Please select another venue for an extended stay in the Houston area.  The hotel is isolated near the Halliburton campus.  We stayed for 7 nights and the breakfast selections were the same for 6 of the 7 days.  The common areas were not well kept and the front desk staff was not helpful.  We have stayed at other Hilton properties in the Houston areas and this property was definitely not up the Hilton standard.MoreShow less</t>
+  </si>
+  <si>
+    <t>Luis L, Manager at Hampton Inn &amp; Suites Houston-Westchase, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Please select another venue for an extended stay in the Houston area.  The hotel is isolated near the Halliburton campus.  We stayed for 7 nights and the breakfast selections were the same for 6 of the 7 days.  The common areas were not well kept and the front desk staff was not helpful.  We have stayed at other Hilton properties in the Houston areas and this property was definitely not up the Hilton standard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r246777148-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246777148</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The room was quite large.  The furnishings were comfortable.  All the little touches, including the 24 hour coffee, tea, and hot chocolate service in the lobby.  Will definitely stay here again Next time I am in Houston.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r246403225-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246403225</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Very Good Stay</t>
+  </si>
+  <si>
+    <t>I am staying for 2 nights over the holidays. The price is great. The room is as expected as I stayed in other Hampton Inn. Services are very responsive. Great stay.The hotel is easy to get in and out. There are many restaurants around it. This is a better choice than staying around the Galleria area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r235477889-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235477889</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Houston Stay</t>
+  </si>
+  <si>
+    <t>Hotel was fine; however, the check-in clerk appeared to be in a bad mood.  she was not friendly in any sense of the word.  I noticed she was moody with everyone before and after me.  Hotel was fine.  Breakfast was not up to the standards of the Hampton Inn as the food was a bit cold; even though, I was eating breakfast at 7 am.  Truly love hampton Inn; although, I will stay at a differnt one next time in Houston.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r234094394-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234094394</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Always meets expectations</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for many weeks in the last five years and a month recently.  The hotel is current Hampton Inn in all aspects - large rooms, comfortable beds, quiet, consistent breakfast, friendly staff.  The location is convenient to west Houston but only 20 minutes from the Galleria area in traffic if you stay off the highway/tollway and its about a $30/day savings from the Galleria area Hilton hotels and free parking, making it a $40/day difference. Not a scenic area - between Sam Houston Tollway and Halliburton.  Restaurant choices are varied but there is a concentration of good southeast Asian choices.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r229545965-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229545965</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>One of the Best Hampton Inn's</t>
+  </si>
+  <si>
+    <t>This hotel was so perfect for me. The staff was quiet and professional, the cleanliness everywhere was exceptional, and it was quiet and peaceful. The complimentary breakfast was wonderful- fresh with eggs served every day, along with all the other breakfast items I have come to expect form Hampton Inn.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r217103265-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217103265</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Confortable</t>
+  </si>
+  <si>
+    <t>It's very good hotel near Westchase zone in Houston,Texas. I appreciated the free Wi-Fi connection and free parking for my car. Rooms are basic and big enough. Included breakfast is really basic but it's okay anyway.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r208950653-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208950653</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>I have stayed in Hampton Inns all over the country and find the levels of quality, service, and the amenities to be consistent no matter where I stay. Its nice knowing what you're going to get when you arrive somewhere for an overnight stay no matter where it is.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r208137466-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208137466</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms, great location, and quiet. Rooms always clean and everyone meaning staff are eager to ensure you have a pleasant stay. Always help to have nice warm cookies upon arrival....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r202179557-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202179557</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>This is a good hotel.  Clean, easy access, and from the busy traffic area in Houston.  I would place this among the top 10 hotels that I have stayed in, and I travel alot.  If you want a good night sleep, and good FREE breakfast, then this is one of the places you will want to mark as a favorite, because it is one of mine.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r201755520-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201755520</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>TV and coffee pot difficult to use</t>
+  </si>
+  <si>
+    <t>Coffee pot plug in was difficult to reach as it was hidden behind a large TV Refrigerator console. I had to use the electrical receptacle outlet in the bathroom to use the coffee pot.  The TV channel remote was confusing and on screen displays for use had incorrect instructions. I had to have to hotel personnel show me how to use the TV remote.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r198399446-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198399446</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>We checked in &amp; went to look for food, wasn't a great idea.  We ordered pizza that was recommended &amp; took 2 hours to get but otherwise was great room. Nice &amp; updated rooms, guy upon check in was great but the morning upon checkout, the girl was sleeping behind wall &amp; breakfast woman had to wake her up to check me out after waiting for 15 minutes at desk, she was very sloppy in appearance as well from sleeping</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r196482704-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196482704</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>No complaints! Great hotel!</t>
+  </si>
+  <si>
+    <t>I stayed here for one night, got the suite. Nice sized room. Very comfortable bed.  Had last room at the end of the hall, so it was very quiet.  Great breakfast.  The scrambled eggs with steak was excellent and I don't even like scrambled eggs that much.  Very friendly staff.  Great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r187793704-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187793704</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>I stayed here three consecutive weeks and I was very pleased with the accommodations.  As a frequent traveler, I'm very familiar with Hilton properties and this Hampton Inn stays inline with Hampton properties. Generous continental breakfast, good work out facilities and consistent internet services.  This hotel has modern features and is located in a business district, so it's very quiet. There are lots of restaurants within a 5 mile radius.  I would stay here again, if necessary.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r185630235-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185630235</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Very accommodating, friendly service</t>
+  </si>
+  <si>
+    <t>I arrived long before the regular check-in time and was welcomed warmly. While rooms weren't ready, the desk clerk said she was sure she could find something housekeeping had already cleaned and went off to check. While I was waiting, another clerk checked to make sure I had been helped. A room was found for me and it was terrific. I was very pleased with the service and the friendly attitude. It's a great business location.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r181215823-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181215823</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Very Nice room</t>
+  </si>
+  <si>
+    <t>This hotel was a nice experience - nice bed, lots of pillows to choose from, nice linens.  Clean, quiet, large with plenty of room. Breakfast included hot items, which was great.  Lots of restaurants nearby, anything you want. w</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r179779330-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179779330</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Stayed in Houston</t>
+  </si>
+  <si>
+    <t>The staff was helpful and friendly.  The hotel dryer did not work.  The toilet seat did not fit the toilet properly.  My best friend also stayed their and his iron didn't work.  Friendly staff but needed to check the rooms before people stayed in them.  I think it is a decent hotel but everything should work in a room when you get there but all issues we addressed with staff were resolved which is a plus.  The milk for the breakfast needed to be refrigerated it was luke warm and is a health and safety hazard serving dairy at room temp.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r179416453-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179416453</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Cozy and quiet</t>
+  </si>
+  <si>
+    <t>We have spent in this hotel a week in september. The first thing to note - it is absolutely quiet and very cozy. We heard no noise during our stay, the room was very clean and the bed rearranged every day. The breakfast is rich and close by the food quality to european ones - there is porridge, variety of yogurts, good tea and not so bad coffee.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r176452253-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176452253</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel in Good Location</t>
+  </si>
+  <si>
+    <t>We stayed at the Hampton Inn &amp; Suites Westchase last week. There was some renovation work being done while we were there and the hotel was almost empty. The renovation work did not interfere with our stay at all - we never heard any construction noises, all entrances and exits were clear and usable, views were unobstructed, and parking was sufficient. The hotel itself is solid in all areas. The front desk was friendly and helpful and the rooms were clean. The best thing about this hotel is the location. While not in downtown, it is in a nice area of town with an abundance of dining and shopping options. It is located on the frontage road for the Sam Houston Tollway and just south of the I-10 and the Westpark Tollway which makes getting to other parts of town relatively quick (getting anywhere in Houston is never quick). We found the drives to the Galleria, Reliant Stadium, and our favorite restaurants to be short and simple. Overall, it's a good hotel and I would recommend staying here over paying the premium to stay in downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Hampton Inn &amp; Suites Westchase last week. There was some renovation work being done while we were there and the hotel was almost empty. The renovation work did not interfere with our stay at all - we never heard any construction noises, all entrances and exits were clear and usable, views were unobstructed, and parking was sufficient. The hotel itself is solid in all areas. The front desk was friendly and helpful and the rooms were clean. The best thing about this hotel is the location. While not in downtown, it is in a nice area of town with an abundance of dining and shopping options. It is located on the frontage road for the Sam Houston Tollway and just south of the I-10 and the Westpark Tollway which makes getting to other parts of town relatively quick (getting anywhere in Houston is never quick). We found the drives to the Galleria, Reliant Stadium, and our favorite restaurants to be short and simple. Overall, it's a good hotel and I would recommend staying here over paying the premium to stay in downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r168366494-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168366494</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>Business Trip from Franklin, TN</t>
+  </si>
+  <si>
+    <t>Staff was very nice &amp; pleasant during my 2 night stay. Desk staff (Luis?) was very helpful when I requested an early check in due to my customer's schedule change. He requested my room to be cleaned quickly, allowing me to freshen up after my flight and before my first meeting of the trip. I appreciated that very much! Very clean hotel, room and comfortable bed. Fitness center was nice and I liked the ability to control the temperature to stay cool.  Overall, a very nice Hampton Inn and close to many restaurants. I will definitely stay again on future visits. Jan from Franklin, TN.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Luis L, Manager at Hampton Inn &amp; Suites Houston-Westchase, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Staff was very nice &amp; pleasant during my 2 night stay. Desk staff (Luis?) was very helpful when I requested an early check in due to my customer's schedule change. He requested my room to be cleaned quickly, allowing me to freshen up after my flight and before my first meeting of the trip. I appreciated that very much! Very clean hotel, room and comfortable bed. Fitness center was nice and I liked the ability to control the temperature to stay cool.  Overall, a very nice Hampton Inn and close to many restaurants. I will definitely stay again on future visits. Jan from Franklin, TN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r167745323-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167745323</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>Hampton Inn Westchase was very clean and friendly atmosphere. I would recommend to anyone else visting Houston,Tx. We had family stay at other hotels in the area and by far, Hampton Inns and suites Westchase was better.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r160368016-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160368016</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is horrible for business or leisure travelers.  First, the housekeeping staff walks in the room at 8am without knocking and demands that she needs to clean the room.  This is hysterical!!  The breakfast staff is eating in the lobby with the guests and not in uniform or a name tag.  Very unprofessional.  The F/D staff is nice, but she didn't comply to our requests knowing the hotel was not busy.  I'm sorry this is not a typical Hampton Inn, please find somewhere else to stay.  They are not following Hilton family standards.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r160675373-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160675373</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Friendly, VERY helpful staff. Clean rooms with efficient housekeeping. Breakfasts were good. 24-hour coffee/tea set up in lobby was very nice. Staff helped with directions, restaurant recommendations, and general questions. They were always attentive and eager to help.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r160054289-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160054289</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Nice Hampton Inn</t>
+  </si>
+  <si>
+    <t>Very nice and clean and new hotel. Only 5 years old and already upgraded lobby to the latest in corporate design standards. Looks actually very nice and contemporary. Bedding is very nice...so are room and bathroom. The rooms are just standard room size and not suites. The only thing it doesn't have is on site service like restaurant etc..breakfast is anything you can make without a chef and real kitchen. Fitness room is small and pool is kind of small and weird...just an after-thought..I think most of that comes with the concept of a Hampton Inn...so it is a 5 star Hampton Inn..but only a 3-4 star with all the other considerations..depends on what you are looking for. If yo just need a nice and clean and comfortable place to sleep - this is an excellent choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice and clean and new hotel. Only 5 years old and already upgraded lobby to the latest in corporate design standards. Looks actually very nice and contemporary. Bedding is very nice...so are room and bathroom. The rooms are just standard room size and not suites. The only thing it doesn't have is on site service like restaurant etc..breakfast is anything you can make without a chef and real kitchen. Fitness room is small and pool is kind of small and weird...just an after-thought..I think most of that comes with the concept of a Hampton Inn...so it is a 5 star Hampton Inn..but only a 3-4 star with all the other considerations..depends on what you are looking for. If yo just need a nice and clean and comfortable place to sleep - this is an excellent choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r158419131-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158419131</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Hampton Stay</t>
+  </si>
+  <si>
+    <t>the hotel is under renovation but rooms are very clean and great hotel service, this was the first time we stay in this hotel and the staff me us feel very comfortable we did not have any complain the only thing was the renovation going but eventually this will be over some day.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r158149519-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158149519</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>I was pleased with my stay at this hotel - room was very neat and clean. Staff were very friendly and helpful.  Hotel is still going through some renovations, once that is complete it should look great!  Area felt very safe, which added to my comfort of my stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r157103736-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157103736</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>I stay in this hotel may be three to four time a year because this hotel gives great service and the staff is great, the hotel is under renovation and the hotel does not look the way that it used to look but eventually it will look great after the renovation but still giving the same great service.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r127103582-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127103582</t>
+  </si>
+  <si>
+    <t>04/01/2012</t>
+  </si>
+  <si>
+    <t>Very good hotel - but don't depend (plan) on using Internet access</t>
+  </si>
+  <si>
+    <t>Hi - this is a very good hotel (fairly new - may be few years old) - the staff are very friendly. However, the Internet access is just horrible. The response from the staff is to call the 'helpdesk' which was no help at all. I told Hilton that I'll not be staying at this property until they fix the Internet access. It felt like we are in a stone age accessing Internet using 56kbps modem or something. just horrible. To the management of this hotel - please fix it. Thanks.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r123037826-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123037826</t>
+  </si>
+  <si>
+    <t>01/13/2012</t>
+  </si>
+  <si>
+    <t>Great Staff and Good Location.  Above Average Hampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed here more times than I can remember.  The staff, especially Mr Luis are great.  This is my hotel of choice when I am in the Westchase area.  Rates seems to fluctuate a bit and for that reason I have actually gotten the local Hilton cheaper on several occasions, but if the rates are good I don't hesitate to book here. I like the local restaurants and it's right off the tollway but away from the bustle of the galleria and downtown Houston.  I would recommend this to anyone looking for this area of Houston. Say Hi to Luis for me.  he always remembers his guest.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r122263187-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122263187</t>
+  </si>
+  <si>
+    <t>12/29/2011</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and friendly service. Breakfast bar good but basic. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r57126210-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57126210</t>
+  </si>
+  <si>
+    <t>02/25/2010</t>
+  </si>
+  <si>
+    <t>Nice hotel, slow internet</t>
+  </si>
+  <si>
+    <t>Hampton Inn hotels are usually cheaper, so I was a bit surprised to pay as much as I did, especially since there are hundreds of hotels in the Houston area.  However, the rooms were nice, the service was good and the staff were very friendly.  Internet access was free -- excellent! -- but somewhat slow (didn't matter whether I tried the wired or wireless connections; both were not optimal).</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r12060918-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>12060918</t>
+  </si>
+  <si>
+    <t>12/29/2007</t>
+  </si>
+  <si>
+    <t>A Great Hotel</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is excellent.   The room was clean, the staff very professional, and the location good (near shops and restaurants).  The breakfast area was very neat and clean and the food well presented.  This property is new and needs to have better directional signs.  It is located on back  from the  service road  hard to see until it is passed.  A sign at it's approach road from the service road would be very helpful.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d486939-r8050749-Hampton_Inn_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8050749</t>
+  </si>
+  <si>
+    <t>07/02/2007</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>This is my second stay at this hotel and definitely will be back to this hotel. I like the location because it's close to many restaurants (although not within walking disctance), but only take 5 min. to nearest restaurants and groceries. There are many Asian/Chinese restaurants nearby and supermarkets. The room itself is very nice. It's very roomy and just a bit above regular Hampton. The breakfast buffet is just pretty standard. I didn't get a chance to use the pool nor exercise room. The hotel is also close to Beltway 8 and easy to find. I will definitely be back to this location again.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2190,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2222,6210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>172</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>180</v>
+      </c>
+      <c r="X23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>188</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>189</v>
+      </c>
+      <c r="X24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>188</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>235</v>
+      </c>
+      <c r="O33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X33" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O36" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>122</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>271</v>
+      </c>
+      <c r="O39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>271</v>
+      </c>
+      <c r="O40" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J41" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" t="s">
+        <v>286</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>287</v>
+      </c>
+      <c r="O41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>289</v>
+      </c>
+      <c r="J42" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" t="s">
+        <v>292</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>287</v>
+      </c>
+      <c r="O42" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" t="s">
+        <v>295</v>
+      </c>
+      <c r="K43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L43" t="s">
+        <v>297</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>300</v>
+      </c>
+      <c r="J44" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" t="s">
+        <v>302</v>
+      </c>
+      <c r="L44" t="s">
+        <v>303</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>304</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>305</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>306</v>
+      </c>
+      <c r="J45" t="s">
+        <v>307</v>
+      </c>
+      <c r="K45" t="s">
+        <v>308</v>
+      </c>
+      <c r="L45" t="s">
+        <v>309</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>310</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s">
+        <v>315</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>310</v>
+      </c>
+      <c r="O46" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>322</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>323</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>322</v>
+      </c>
+      <c r="O48" t="s">
+        <v>122</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>322</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>334</v>
+      </c>
+      <c r="J50" t="s">
+        <v>335</v>
+      </c>
+      <c r="K50" t="s">
+        <v>336</v>
+      </c>
+      <c r="L50" t="s">
+        <v>337</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>338</v>
+      </c>
+      <c r="O50" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>339</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" t="s">
+        <v>342</v>
+      </c>
+      <c r="L51" t="s">
+        <v>343</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>338</v>
+      </c>
+      <c r="O51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>345</v>
+      </c>
+      <c r="J52" t="s">
+        <v>346</v>
+      </c>
+      <c r="K52" t="s">
+        <v>347</v>
+      </c>
+      <c r="L52" t="s">
+        <v>348</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>349</v>
+      </c>
+      <c r="O52" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>351</v>
+      </c>
+      <c r="J53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" t="s">
+        <v>353</v>
+      </c>
+      <c r="L53" t="s">
+        <v>354</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>355</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>356</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>357</v>
+      </c>
+      <c r="J54" t="s">
+        <v>358</v>
+      </c>
+      <c r="K54" t="s">
+        <v>359</v>
+      </c>
+      <c r="L54" t="s">
+        <v>360</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>361</v>
+      </c>
+      <c r="O54" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>363</v>
+      </c>
+      <c r="J55" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" t="s">
+        <v>365</v>
+      </c>
+      <c r="L55" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>361</v>
+      </c>
+      <c r="O55" t="s">
+        <v>122</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>368</v>
+      </c>
+      <c r="J56" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" t="s">
+        <v>370</v>
+      </c>
+      <c r="L56" t="s">
+        <v>371</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>372</v>
+      </c>
+      <c r="O56" t="s">
+        <v>122</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>373</v>
+      </c>
+      <c r="X56" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>376</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>377</v>
+      </c>
+      <c r="J57" t="s">
+        <v>378</v>
+      </c>
+      <c r="K57" t="s">
+        <v>379</v>
+      </c>
+      <c r="L57" t="s">
+        <v>380</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>381</v>
+      </c>
+      <c r="O57" t="s">
+        <v>122</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>382</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>383</v>
+      </c>
+      <c r="J58" t="s">
+        <v>384</v>
+      </c>
+      <c r="K58" t="s">
+        <v>385</v>
+      </c>
+      <c r="L58" t="s">
+        <v>386</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>381</v>
+      </c>
+      <c r="O58" t="s">
+        <v>74</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>388</v>
+      </c>
+      <c r="J59" t="s">
+        <v>389</v>
+      </c>
+      <c r="K59" t="s">
+        <v>390</v>
+      </c>
+      <c r="L59" t="s">
+        <v>391</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>392</v>
+      </c>
+      <c r="O59" t="s">
+        <v>122</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>394</v>
+      </c>
+      <c r="J60" t="s">
+        <v>395</v>
+      </c>
+      <c r="K60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L60" t="s">
+        <v>396</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>392</v>
+      </c>
+      <c r="O60" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>398</v>
+      </c>
+      <c r="J61" t="s">
+        <v>399</v>
+      </c>
+      <c r="K61" t="s">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s">
+        <v>401</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>402</v>
+      </c>
+      <c r="O61" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>373</v>
+      </c>
+      <c r="X61" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>404</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>405</v>
+      </c>
+      <c r="J62" t="s">
+        <v>406</v>
+      </c>
+      <c r="K62" t="s">
+        <v>407</v>
+      </c>
+      <c r="L62" t="s">
+        <v>408</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>402</v>
+      </c>
+      <c r="O62" t="s">
+        <v>86</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>409</v>
+      </c>
+      <c r="X62" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>412</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>413</v>
+      </c>
+      <c r="J63" t="s">
+        <v>414</v>
+      </c>
+      <c r="K63" t="s">
+        <v>415</v>
+      </c>
+      <c r="L63" t="s">
+        <v>416</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>417</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>419</v>
+      </c>
+      <c r="J64" t="s">
+        <v>420</v>
+      </c>
+      <c r="K64" t="s">
+        <v>421</v>
+      </c>
+      <c r="L64" t="s">
+        <v>422</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>417</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>423</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>424</v>
+      </c>
+      <c r="J65" t="s">
+        <v>425</v>
+      </c>
+      <c r="K65" t="s">
+        <v>426</v>
+      </c>
+      <c r="L65" t="s">
+        <v>427</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>428</v>
+      </c>
+      <c r="O65" t="s">
+        <v>122</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>429</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>430</v>
+      </c>
+      <c r="J66" t="s">
+        <v>431</v>
+      </c>
+      <c r="K66" t="s">
+        <v>432</v>
+      </c>
+      <c r="L66" t="s">
+        <v>433</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>428</v>
+      </c>
+      <c r="O66" t="s">
+        <v>122</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>434</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>435</v>
+      </c>
+      <c r="J67" t="s">
+        <v>436</v>
+      </c>
+      <c r="K67" t="s">
+        <v>437</v>
+      </c>
+      <c r="L67" t="s">
+        <v>438</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>439</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>440</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>441</v>
+      </c>
+      <c r="J68" t="s">
+        <v>442</v>
+      </c>
+      <c r="K68" t="s">
+        <v>443</v>
+      </c>
+      <c r="L68" t="s">
+        <v>444</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>445</v>
+      </c>
+      <c r="O68" t="s">
+        <v>122</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>446</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>447</v>
+      </c>
+      <c r="J69" t="s">
+        <v>448</v>
+      </c>
+      <c r="K69" t="s">
+        <v>449</v>
+      </c>
+      <c r="L69" t="s">
+        <v>450</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>451</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>453</v>
+      </c>
+      <c r="J70" t="s">
+        <v>454</v>
+      </c>
+      <c r="K70" t="s">
+        <v>455</v>
+      </c>
+      <c r="L70" t="s">
+        <v>456</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>451</v>
+      </c>
+      <c r="O70" t="s">
+        <v>86</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>457</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>458</v>
+      </c>
+      <c r="J71" t="s">
+        <v>459</v>
+      </c>
+      <c r="K71" t="s">
+        <v>460</v>
+      </c>
+      <c r="L71" t="s">
+        <v>461</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>462</v>
+      </c>
+      <c r="O71" t="s">
+        <v>122</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>463</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>464</v>
+      </c>
+      <c r="J72" t="s">
+        <v>465</v>
+      </c>
+      <c r="K72" t="s">
+        <v>466</v>
+      </c>
+      <c r="L72" t="s">
+        <v>467</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>462</v>
+      </c>
+      <c r="O72" t="s">
+        <v>122</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>468</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>469</v>
+      </c>
+      <c r="J73" t="s">
+        <v>470</v>
+      </c>
+      <c r="K73" t="s">
+        <v>471</v>
+      </c>
+      <c r="L73" t="s">
+        <v>472</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>445</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>474</v>
+      </c>
+      <c r="J74" t="s">
+        <v>475</v>
+      </c>
+      <c r="K74" t="s">
+        <v>476</v>
+      </c>
+      <c r="L74" t="s">
+        <v>477</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>445</v>
+      </c>
+      <c r="O74" t="s">
+        <v>122</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>478</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>479</v>
+      </c>
+      <c r="J75" t="s">
+        <v>480</v>
+      </c>
+      <c r="K75" t="s">
+        <v>103</v>
+      </c>
+      <c r="L75" t="s">
+        <v>481</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>482</v>
+      </c>
+      <c r="O75" t="s">
+        <v>122</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>483</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>484</v>
+      </c>
+      <c r="J76" t="s">
+        <v>485</v>
+      </c>
+      <c r="K76" t="s">
+        <v>486</v>
+      </c>
+      <c r="L76" t="s">
+        <v>487</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>488</v>
+      </c>
+      <c r="O76" t="s">
+        <v>122</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>489</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>490</v>
+      </c>
+      <c r="J77" t="s">
+        <v>491</v>
+      </c>
+      <c r="K77" t="s">
+        <v>492</v>
+      </c>
+      <c r="L77" t="s">
+        <v>493</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>494</v>
+      </c>
+      <c r="O77" t="s">
+        <v>122</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>495</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>496</v>
+      </c>
+      <c r="J78" t="s">
+        <v>497</v>
+      </c>
+      <c r="K78" t="s">
+        <v>498</v>
+      </c>
+      <c r="L78" t="s">
+        <v>499</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>500</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>501</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>502</v>
+      </c>
+      <c r="J79" t="s">
+        <v>503</v>
+      </c>
+      <c r="K79" t="s">
+        <v>504</v>
+      </c>
+      <c r="L79" t="s">
+        <v>505</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>500</v>
+      </c>
+      <c r="O79" t="s">
+        <v>122</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>506</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>507</v>
+      </c>
+      <c r="J80" t="s">
+        <v>508</v>
+      </c>
+      <c r="K80" t="s">
+        <v>509</v>
+      </c>
+      <c r="L80" t="s">
+        <v>510</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>500</v>
+      </c>
+      <c r="O80" t="s">
+        <v>74</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>512</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>513</v>
+      </c>
+      <c r="J81" t="s">
+        <v>514</v>
+      </c>
+      <c r="K81" t="s">
+        <v>515</v>
+      </c>
+      <c r="L81" t="s">
+        <v>516</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>517</v>
+      </c>
+      <c r="O81" t="s">
+        <v>122</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>518</v>
+      </c>
+      <c r="X81" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>521</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>522</v>
+      </c>
+      <c r="J82" t="s">
+        <v>523</v>
+      </c>
+      <c r="K82" t="s">
+        <v>524</v>
+      </c>
+      <c r="L82" t="s">
+        <v>525</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>517</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>526</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>527</v>
+      </c>
+      <c r="J83" t="s">
+        <v>528</v>
+      </c>
+      <c r="K83" t="s">
+        <v>529</v>
+      </c>
+      <c r="L83" t="s">
+        <v>530</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>531</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>532</v>
+      </c>
+      <c r="J84" t="s">
+        <v>533</v>
+      </c>
+      <c r="K84" t="s">
+        <v>534</v>
+      </c>
+      <c r="L84" t="s">
+        <v>535</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>536</v>
+      </c>
+      <c r="O84" t="s">
+        <v>122</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>537</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>538</v>
+      </c>
+      <c r="J85" t="s">
+        <v>539</v>
+      </c>
+      <c r="K85" t="s">
+        <v>540</v>
+      </c>
+      <c r="L85" t="s">
+        <v>541</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>536</v>
+      </c>
+      <c r="O85" t="s">
+        <v>122</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>543</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>544</v>
+      </c>
+      <c r="J86" t="s">
+        <v>545</v>
+      </c>
+      <c r="K86" t="s">
+        <v>546</v>
+      </c>
+      <c r="L86" t="s">
+        <v>547</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>548</v>
+      </c>
+      <c r="O86" t="s">
+        <v>86</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>549</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>550</v>
+      </c>
+      <c r="J87" t="s">
+        <v>551</v>
+      </c>
+      <c r="K87" t="s">
+        <v>275</v>
+      </c>
+      <c r="L87" t="s">
+        <v>552</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>548</v>
+      </c>
+      <c r="O87" t="s">
+        <v>122</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>553</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>554</v>
+      </c>
+      <c r="J88" t="s">
+        <v>555</v>
+      </c>
+      <c r="K88" t="s">
+        <v>556</v>
+      </c>
+      <c r="L88" t="s">
+        <v>557</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>558</v>
+      </c>
+      <c r="O88" t="s">
+        <v>86</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>559</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>560</v>
+      </c>
+      <c r="J89" t="s">
+        <v>561</v>
+      </c>
+      <c r="K89" t="s">
+        <v>562</v>
+      </c>
+      <c r="L89" t="s">
+        <v>563</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>564</v>
+      </c>
+      <c r="O89" t="s">
+        <v>122</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>565</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>566</v>
+      </c>
+      <c r="J90" t="s">
+        <v>567</v>
+      </c>
+      <c r="K90" t="s">
+        <v>568</v>
+      </c>
+      <c r="L90" t="s">
+        <v>569</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>570</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>571</v>
+      </c>
+      <c r="J91" t="s">
+        <v>572</v>
+      </c>
+      <c r="K91" t="s">
+        <v>573</v>
+      </c>
+      <c r="L91" t="s">
+        <v>574</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>575</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>576</v>
+      </c>
+      <c r="J92" t="s">
+        <v>577</v>
+      </c>
+      <c r="K92" t="s">
+        <v>578</v>
+      </c>
+      <c r="L92" t="s">
+        <v>579</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>580</v>
+      </c>
+      <c r="O92" t="s">
+        <v>122</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>581</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>582</v>
+      </c>
+      <c r="J93" t="s">
+        <v>583</v>
+      </c>
+      <c r="K93" t="s">
+        <v>584</v>
+      </c>
+      <c r="L93" t="s">
+        <v>585</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>586</v>
+      </c>
+      <c r="O93" t="s">
+        <v>86</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>52934</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>587</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>588</v>
+      </c>
+      <c r="J94" t="s">
+        <v>589</v>
+      </c>
+      <c r="K94" t="s">
+        <v>590</v>
+      </c>
+      <c r="L94" t="s">
+        <v>591</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>592</v>
+      </c>
+      <c r="O94" t="s">
+        <v>122</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
